--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2285.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2285.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.133680812032531</v>
+        <v>1.186296701431274</v>
       </c>
       <c r="B1">
-        <v>3.248232481833849</v>
+        <v>2.424749612808228</v>
       </c>
       <c r="C1">
-        <v>3.96382674146659</v>
+        <v>3.893263101577759</v>
       </c>
       <c r="D1">
-        <v>3.548692368676473</v>
+        <v>2.136294603347778</v>
       </c>
       <c r="E1">
-        <v>1.215805153407334</v>
+        <v>1.196138024330139</v>
       </c>
     </row>
   </sheetData>
